--- a/biology/Zoologie/Grallaire_rousse/Grallaire_rousse.xlsx
+++ b/biology/Zoologie/Grallaire_rousse/Grallaire_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaria rufula
 La Grallaire rousse (Grallaria rufula) est une espèce d'oiseaux de la famille des Grallariidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure environ 14,5 à 15 cm. Le mâle pèse entre 35 et 46 g et la femelle entre 39 et 46 g[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure environ 14,5 à 15 cm. Le mâle pèse entre 35 et 46 g et la femelle entre 39 et 46 g.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Venezuela, en Colombie, en Équateur, au Pérou et en Bolivie[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Venezuela, en Colombie, en Équateur, au Pérou et en Bolivie. 
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit majoritairement dans la forêt tropicale humide de montagne. Elle fréquente aussi les bords de cours d'eau et les marécages[réf. nécessaire].
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020) :
 Grallaria rufula spatiator Bangs, 1898 - Nord-Est de la Colombie
 Grallaria rufula saltuensis Wetmore, 1946 - Nord-Est de la Colombie, Nord-Ouest du Venezuela
 Grallaria rufula rufula Lafresnaye, 1843 - Colombie, Ouest du Venezuela, Équateur
